--- a/JupyterNotebooks/AveragedIntensites/ShearF-HW15.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/ShearF-HW15.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="ShearF-HW15.xpc" sheetId="1" r:id="rId1"/>
+    <sheet name="ShearF" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>HKL</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -952,7 +952,7 @@
         <v>0.996822371435004</v>
       </c>
       <c r="D13">
-        <v>0.9933785644704799</v>
+        <v>0.9933785644704798</v>
       </c>
       <c r="E13">
         <v>0.993236875896363</v>
@@ -970,13 +970,13 @@
         <v>0.993206737851276</v>
       </c>
       <c r="J13">
-        <v>0.9933785644704799</v>
+        <v>0.9933785644704798</v>
       </c>
       <c r="K13">
-        <v>0.9933077201834215</v>
+        <v>0.9933077201834214</v>
       </c>
       <c r="L13">
-        <v>0.9950650458092127</v>
+        <v>0.9950650458092126</v>
       </c>
       <c r="M13">
         <v>0.993279830107472</v>
@@ -1034,7 +1034,7 @@
         <v>1.132588323769258</v>
       </c>
       <c r="D15">
-        <v>0.7294694326572123</v>
+        <v>0.729469432657212</v>
       </c>
       <c r="E15">
         <v>1.034511192148362</v>
@@ -1052,16 +1052,57 @@
         <v>1.07169064935985</v>
       </c>
       <c r="J15">
-        <v>0.7294694326572123</v>
+        <v>0.729469432657212</v>
       </c>
       <c r="K15">
-        <v>0.881990312402787</v>
+        <v>0.8819903124027868</v>
       </c>
       <c r="L15">
         <v>1.007289318086022</v>
       </c>
       <c r="M15">
         <v>1.000945402824968</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>1.225040886154097</v>
+      </c>
+      <c r="D16">
+        <v>2.34493493238325</v>
+      </c>
+      <c r="E16">
+        <v>0.6296575682396935</v>
+      </c>
+      <c r="F16">
+        <v>1.225040886154097</v>
+      </c>
+      <c r="G16">
+        <v>1.332156129456757</v>
+      </c>
+      <c r="H16">
+        <v>0.4592399385408076</v>
+      </c>
+      <c r="I16">
+        <v>0.7660167035182626</v>
+      </c>
+      <c r="J16">
+        <v>2.34493493238325</v>
+      </c>
+      <c r="K16">
+        <v>1.487296250311472</v>
+      </c>
+      <c r="L16">
+        <v>1.356168568232785</v>
+      </c>
+      <c r="M16">
+        <v>1.126174359715478</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AveragedIntensites/ShearF-HW15.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/ShearF-HW15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>HKL</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
+  </si>
+  <si>
+    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -498,37 +501,37 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1069,7 +1072,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>1.225040886154097</v>

--- a/JupyterNotebooks/AveragedIntensites/ShearF-HW15.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/ShearF-HW15.xlsx
@@ -955,7 +955,7 @@
         <v>0.996822371435004</v>
       </c>
       <c r="D13">
-        <v>0.9933785644704798</v>
+        <v>0.9933785644704799</v>
       </c>
       <c r="E13">
         <v>0.993236875896363</v>
@@ -973,13 +973,13 @@
         <v>0.993206737851276</v>
       </c>
       <c r="J13">
-        <v>0.9933785644704798</v>
+        <v>0.9933785644704799</v>
       </c>
       <c r="K13">
-        <v>0.9933077201834214</v>
+        <v>0.9933077201834215</v>
       </c>
       <c r="L13">
-        <v>0.9950650458092126</v>
+        <v>0.9950650458092127</v>
       </c>
       <c r="M13">
         <v>0.993279830107472</v>
@@ -1037,7 +1037,7 @@
         <v>1.132588323769258</v>
       </c>
       <c r="D15">
-        <v>0.729469432657212</v>
+        <v>0.7294694326572123</v>
       </c>
       <c r="E15">
         <v>1.034511192148362</v>
@@ -1055,10 +1055,10 @@
         <v>1.07169064935985</v>
       </c>
       <c r="J15">
-        <v>0.729469432657212</v>
+        <v>0.7294694326572123</v>
       </c>
       <c r="K15">
-        <v>0.8819903124027868</v>
+        <v>0.881990312402787</v>
       </c>
       <c r="L15">
         <v>1.007289318086022</v>

--- a/JupyterNotebooks/AveragedIntensites/ShearF-HW15.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/ShearF-HW15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>HKL</t>
   </si>
@@ -40,6 +40,18 @@
     <t>Ring Perpendicular to TD</t>
   </si>
   <si>
+    <t>Gaussian-Quadrature</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-15rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-3space</t>
+  </si>
+  <si>
     <t>NoRotation-tilt60deg</t>
   </si>
   <si>
@@ -56,9 +68,6 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
-  </si>
-  <si>
-    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -449,7 +458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -501,37 +510,37 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -829,37 +838,37 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.1309559999999998</v>
+        <v>1.225040886154097</v>
       </c>
       <c r="D10">
-        <v>4.350464000000007</v>
+        <v>2.34493493238325</v>
       </c>
       <c r="E10">
-        <v>0.6593600000000008</v>
+        <v>0.6296575682396935</v>
       </c>
       <c r="F10">
-        <v>0.1309559999999998</v>
+        <v>1.225040886154097</v>
       </c>
       <c r="G10">
-        <v>1.81494</v>
+        <v>1.332156129456757</v>
       </c>
       <c r="H10">
-        <v>0.8801960000000019</v>
+        <v>0.4592399385408076</v>
       </c>
       <c r="I10">
-        <v>0.4860880000000009</v>
+        <v>0.7660167035182626</v>
       </c>
       <c r="J10">
-        <v>4.350464000000007</v>
+        <v>2.34493493238325</v>
       </c>
       <c r="K10">
-        <v>2.504912000000004</v>
+        <v>1.487296250311472</v>
       </c>
       <c r="L10">
-        <v>1.317934000000001</v>
+        <v>1.356168568232785</v>
       </c>
       <c r="M10">
-        <v>1.387000666666668</v>
+        <v>1.126174359715478</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -870,37 +879,37 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.01</v>
+        <v>0.7971362181471839</v>
       </c>
       <c r="D11">
-        <v>6.875437500000012</v>
+        <v>0.9376980776736024</v>
       </c>
       <c r="E11">
-        <v>0.15</v>
+        <v>1.178874050533731</v>
       </c>
       <c r="F11">
-        <v>0.01</v>
+        <v>0.7971362181471839</v>
       </c>
       <c r="G11">
-        <v>2.526812499999997</v>
+        <v>0.7221209008683771</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1.86278677253059</v>
       </c>
       <c r="I11">
-        <v>0.11</v>
+        <v>1.042002421923074</v>
       </c>
       <c r="J11">
-        <v>6.875437500000012</v>
+        <v>0.9376980776736024</v>
       </c>
       <c r="K11">
-        <v>3.512718750000006</v>
+        <v>1.058286064103666</v>
       </c>
       <c r="L11">
-        <v>1.761359375000003</v>
+        <v>0.9277111411254252</v>
       </c>
       <c r="M11">
-        <v>1.612041666666668</v>
+        <v>1.09010307361276</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -911,37 +920,37 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.4217035024383986</v>
+        <v>0.7905430295222121</v>
       </c>
       <c r="D12">
-        <v>4.380577564671997</v>
+        <v>0.9385155587952247</v>
       </c>
       <c r="E12">
-        <v>0.4936157308928026</v>
+        <v>1.18069548918641</v>
       </c>
       <c r="F12">
-        <v>0.4217035024383986</v>
+        <v>0.7905430295222121</v>
       </c>
       <c r="G12">
-        <v>1.888129161625597</v>
+        <v>0.7232876998929499</v>
       </c>
       <c r="H12">
-        <v>0.4151164925952002</v>
+        <v>1.865748641074372</v>
       </c>
       <c r="I12">
-        <v>0.4786240591872011</v>
+        <v>1.04175520716646</v>
       </c>
       <c r="J12">
-        <v>4.380577564671997</v>
+        <v>0.9385155587952247</v>
       </c>
       <c r="K12">
-        <v>2.4370966477824</v>
+        <v>1.059605523990817</v>
       </c>
       <c r="L12">
-        <v>1.429400075110399</v>
+        <v>0.9250742767565147</v>
       </c>
       <c r="M12">
-        <v>1.346294418568533</v>
+        <v>1.090090937606272</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -952,37 +961,37 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.996822371435004</v>
+        <v>0.7960958519844883</v>
       </c>
       <c r="D13">
-        <v>0.9933785644704799</v>
+        <v>0.9362009970108627</v>
       </c>
       <c r="E13">
-        <v>0.993236875896363</v>
+        <v>1.17910867606748</v>
       </c>
       <c r="F13">
-        <v>0.996822371435004</v>
+        <v>0.7960958519844883</v>
       </c>
       <c r="G13">
-        <v>0.9961857860851996</v>
+        <v>0.722567982635019</v>
       </c>
       <c r="H13">
-        <v>0.98684864490651</v>
+        <v>1.862021717421377</v>
       </c>
       <c r="I13">
-        <v>0.993206737851276</v>
+        <v>1.041868783256412</v>
       </c>
       <c r="J13">
-        <v>0.9933785644704799</v>
+        <v>0.9362009970108627</v>
       </c>
       <c r="K13">
-        <v>0.9933077201834215</v>
+        <v>1.057654836539171</v>
       </c>
       <c r="L13">
-        <v>0.9950650458092127</v>
+        <v>0.9268753442618298</v>
       </c>
       <c r="M13">
-        <v>0.993279830107472</v>
+        <v>1.08964400139594</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -993,37 +1002,37 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.001146461615077</v>
+        <v>0.1309559999999998</v>
       </c>
       <c r="D14">
-        <v>0.8707963194674984</v>
+        <v>4.350464000000007</v>
       </c>
       <c r="E14">
-        <v>1.035743388192315</v>
+        <v>0.6593600000000008</v>
       </c>
       <c r="F14">
-        <v>1.001146461615077</v>
+        <v>0.1309559999999998</v>
       </c>
       <c r="G14">
-        <v>0.9408042698655251</v>
+        <v>1.81494</v>
       </c>
       <c r="H14">
-        <v>1.070568582324037</v>
+        <v>0.8801960000000019</v>
       </c>
       <c r="I14">
-        <v>1.020470608105398</v>
+        <v>0.4860880000000009</v>
       </c>
       <c r="J14">
-        <v>0.8707963194674984</v>
+        <v>4.350464000000007</v>
       </c>
       <c r="K14">
-        <v>0.9532698538299068</v>
+        <v>2.504912000000004</v>
       </c>
       <c r="L14">
-        <v>0.977208157722492</v>
+        <v>1.317934000000001</v>
       </c>
       <c r="M14">
-        <v>0.9899216049283085</v>
+        <v>1.387000666666668</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1034,37 +1043,37 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.132588323769258</v>
+        <v>0.01</v>
       </c>
       <c r="D15">
-        <v>0.7294694326572123</v>
+        <v>6.875437500000012</v>
       </c>
       <c r="E15">
-        <v>1.034511192148362</v>
+        <v>0.15</v>
       </c>
       <c r="F15">
-        <v>1.132588323769258</v>
+        <v>0.01</v>
       </c>
       <c r="G15">
-        <v>0.7858181002285244</v>
+        <v>2.526812499999997</v>
       </c>
       <c r="H15">
-        <v>1.251594718786602</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>1.07169064935985</v>
+        <v>0.11</v>
       </c>
       <c r="J15">
-        <v>0.7294694326572123</v>
+        <v>6.875437500000012</v>
       </c>
       <c r="K15">
-        <v>0.881990312402787</v>
+        <v>3.512718750000006</v>
       </c>
       <c r="L15">
-        <v>1.007289318086022</v>
+        <v>1.761359375000003</v>
       </c>
       <c r="M15">
-        <v>1.000945402824968</v>
+        <v>1.612041666666668</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1075,37 +1084,160 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.225040886154097</v>
+        <v>0.4217035024383986</v>
       </c>
       <c r="D16">
-        <v>2.34493493238325</v>
+        <v>4.380577564671997</v>
       </c>
       <c r="E16">
-        <v>0.6296575682396935</v>
+        <v>0.4936157308928026</v>
       </c>
       <c r="F16">
-        <v>1.225040886154097</v>
+        <v>0.4217035024383986</v>
       </c>
       <c r="G16">
-        <v>1.332156129456757</v>
+        <v>1.888129161625597</v>
       </c>
       <c r="H16">
-        <v>0.4592399385408076</v>
+        <v>0.4151164925952002</v>
       </c>
       <c r="I16">
-        <v>0.7660167035182626</v>
+        <v>0.4786240591872011</v>
       </c>
       <c r="J16">
-        <v>2.34493493238325</v>
+        <v>4.380577564671997</v>
       </c>
       <c r="K16">
-        <v>1.487296250311472</v>
+        <v>2.4370966477824</v>
       </c>
       <c r="L16">
-        <v>1.356168568232785</v>
+        <v>1.429400075110399</v>
       </c>
       <c r="M16">
-        <v>1.126174359715478</v>
+        <v>1.346294418568533</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>0.996822371435004</v>
+      </c>
+      <c r="D17">
+        <v>0.9933785644704798</v>
+      </c>
+      <c r="E17">
+        <v>0.993236875896363</v>
+      </c>
+      <c r="F17">
+        <v>0.996822371435004</v>
+      </c>
+      <c r="G17">
+        <v>0.9961857860851996</v>
+      </c>
+      <c r="H17">
+        <v>0.98684864490651</v>
+      </c>
+      <c r="I17">
+        <v>0.993206737851276</v>
+      </c>
+      <c r="J17">
+        <v>0.9933785644704798</v>
+      </c>
+      <c r="K17">
+        <v>0.9933077201834214</v>
+      </c>
+      <c r="L17">
+        <v>0.9950650458092126</v>
+      </c>
+      <c r="M17">
+        <v>0.993279830107472</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>1.001146461615077</v>
+      </c>
+      <c r="D18">
+        <v>0.8707963194674984</v>
+      </c>
+      <c r="E18">
+        <v>1.035743388192315</v>
+      </c>
+      <c r="F18">
+        <v>1.001146461615077</v>
+      </c>
+      <c r="G18">
+        <v>0.9408042698655251</v>
+      </c>
+      <c r="H18">
+        <v>1.070568582324037</v>
+      </c>
+      <c r="I18">
+        <v>1.020470608105398</v>
+      </c>
+      <c r="J18">
+        <v>0.8707963194674984</v>
+      </c>
+      <c r="K18">
+        <v>0.9532698538299068</v>
+      </c>
+      <c r="L18">
+        <v>0.977208157722492</v>
+      </c>
+      <c r="M18">
+        <v>0.9899216049283085</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>1.132588323769258</v>
+      </c>
+      <c r="D19">
+        <v>0.729469432657212</v>
+      </c>
+      <c r="E19">
+        <v>1.034511192148362</v>
+      </c>
+      <c r="F19">
+        <v>1.132588323769258</v>
+      </c>
+      <c r="G19">
+        <v>0.7858181002285244</v>
+      </c>
+      <c r="H19">
+        <v>1.251594718786602</v>
+      </c>
+      <c r="I19">
+        <v>1.07169064935985</v>
+      </c>
+      <c r="J19">
+        <v>0.729469432657212</v>
+      </c>
+      <c r="K19">
+        <v>0.8819903124027868</v>
+      </c>
+      <c r="L19">
+        <v>1.007289318086022</v>
+      </c>
+      <c r="M19">
+        <v>1.000945402824968</v>
       </c>
     </row>
   </sheetData>
